--- a/va_facility_data_2025-02-20/Lewiston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lewiston%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lewiston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lewiston%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd0ed557b6f5844bebc15b871b47860ce"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd1e32c467f044bbea16dc602863570bb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd9f9ec6cb75c4ff1b35c0ea2bda0a433"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rff92e38ee2804abdbd1a622d69114253"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R649327dfaf714b72ba2b929c0452d35a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf48fdd97bf9441e9b4dc66fdfaf9d567"/>
   </x:sheets>
 </x:workbook>
 </file>
